--- a/作物产量报表.xlsx
+++ b/作物产量报表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -828,31 +828,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">生菜 </t>
+          <t>芹菜</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>芹菜</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
         <v>3600</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">菠菜 </t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1800</v>
       </c>
     </row>
   </sheetData>
